--- a/CCRL.xlsx
+++ b/CCRL.xlsx
@@ -2654,9 +2654,6 @@
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Minneapolis/Saint Paul</t>
-  </si>
-  <si>
     <t>http://www.meetup.com/RLadiesTC/</t>
   </si>
   <si>
@@ -3066,6 +3063,9 @@
   </si>
   <si>
     <t>https://twitter.com/RLadiesSaoPaulo</t>
+  </si>
+  <si>
+    <t>Minneapolis-Saint Paul</t>
   </si>
 </sst>
 </file>
@@ -3410,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3644,7 +3644,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -3708,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C10" t="s">
         <v>64</v>
@@ -3740,7 +3740,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -4268,7 +4268,7 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -7512,16 +7512,16 @@
         <v>868</v>
       </c>
       <c r="C190" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D190" t="s">
         <v>869</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>870</v>
       </c>
-      <c r="E190" t="s">
+      <c r="N190" t="s">
         <v>871</v>
-      </c>
-      <c r="N190" t="s">
-        <v>872</v>
       </c>
       <c r="O190" t="s">
         <v>19</v>
@@ -7532,13 +7532,13 @@
         <v>687</v>
       </c>
       <c r="B191" t="s">
+        <v>872</v>
+      </c>
+      <c r="C191" t="s">
         <v>873</v>
       </c>
-      <c r="C191" t="s">
+      <c r="N191" t="s">
         <v>874</v>
-      </c>
-      <c r="N191" t="s">
-        <v>875</v>
       </c>
       <c r="O191" t="s">
         <v>91</v>
@@ -7549,13 +7549,13 @@
         <v>687</v>
       </c>
       <c r="B192" t="s">
+        <v>875</v>
+      </c>
+      <c r="C192" t="s">
         <v>876</v>
       </c>
-      <c r="C192" t="s">
+      <c r="N192" t="s">
         <v>877</v>
-      </c>
-      <c r="N192" t="s">
-        <v>878</v>
       </c>
       <c r="O192" t="s">
         <v>91</v>
@@ -7566,16 +7566,16 @@
         <v>687</v>
       </c>
       <c r="B193" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C193" t="s">
+        <v>878</v>
+      </c>
+      <c r="D193" t="s">
         <v>879</v>
       </c>
-      <c r="D193" t="s">
+      <c r="N193" t="s">
         <v>880</v>
-      </c>
-      <c r="N193" t="s">
-        <v>881</v>
       </c>
       <c r="O193" t="s">
         <v>28</v>
@@ -7586,16 +7586,16 @@
         <v>687</v>
       </c>
       <c r="B194" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C194" t="s">
+        <v>881</v>
+      </c>
+      <c r="D194" t="s">
         <v>882</v>
       </c>
-      <c r="D194" t="s">
+      <c r="N194" t="s">
         <v>883</v>
-      </c>
-      <c r="N194" t="s">
-        <v>884</v>
       </c>
       <c r="O194" t="s">
         <v>28</v>
@@ -7606,13 +7606,13 @@
         <v>687</v>
       </c>
       <c r="B195" t="s">
+        <v>884</v>
+      </c>
+      <c r="C195" t="s">
         <v>885</v>
       </c>
-      <c r="C195" t="s">
+      <c r="N195" t="s">
         <v>886</v>
-      </c>
-      <c r="N195" t="s">
-        <v>887</v>
       </c>
       <c r="O195" t="s">
         <v>91</v>
@@ -7623,13 +7623,13 @@
         <v>687</v>
       </c>
       <c r="B196" t="s">
+        <v>887</v>
+      </c>
+      <c r="C196" t="s">
         <v>888</v>
       </c>
-      <c r="C196" t="s">
+      <c r="N196" t="s">
         <v>889</v>
-      </c>
-      <c r="N196" t="s">
-        <v>890</v>
       </c>
       <c r="O196" t="s">
         <v>91</v>
@@ -7640,13 +7640,13 @@
         <v>687</v>
       </c>
       <c r="B197" t="s">
+        <v>890</v>
+      </c>
+      <c r="C197" t="s">
         <v>891</v>
       </c>
-      <c r="C197" t="s">
+      <c r="N197" t="s">
         <v>892</v>
-      </c>
-      <c r="N197" t="s">
-        <v>893</v>
       </c>
       <c r="O197" t="s">
         <v>91</v>
@@ -7657,22 +7657,22 @@
         <v>687</v>
       </c>
       <c r="B198" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C198" t="s">
+        <v>893</v>
+      </c>
+      <c r="D198" t="s">
         <v>894</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>895</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>896</v>
       </c>
-      <c r="F198" t="s">
+      <c r="N198" t="s">
         <v>897</v>
-      </c>
-      <c r="N198" t="s">
-        <v>898</v>
       </c>
       <c r="O198" t="s">
         <v>28</v>
@@ -7683,13 +7683,13 @@
         <v>687</v>
       </c>
       <c r="B199" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C199" t="s">
+        <v>898</v>
+      </c>
+      <c r="N199" t="s">
         <v>899</v>
-      </c>
-      <c r="N199" t="s">
-        <v>900</v>
       </c>
       <c r="O199" t="s">
         <v>91</v>
@@ -7700,28 +7700,28 @@
         <v>687</v>
       </c>
       <c r="B200" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C200" t="s">
+        <v>900</v>
+      </c>
+      <c r="D200" t="s">
         <v>901</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>902</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>903</v>
       </c>
-      <c r="F200" t="s">
+      <c r="K200" t="s">
         <v>904</v>
       </c>
-      <c r="K200" t="s">
+      <c r="L200" t="s">
         <v>905</v>
       </c>
-      <c r="L200" t="s">
+      <c r="N200" t="s">
         <v>906</v>
-      </c>
-      <c r="N200" t="s">
-        <v>907</v>
       </c>
       <c r="O200" t="s">
         <v>19</v>
@@ -7732,13 +7732,13 @@
         <v>687</v>
       </c>
       <c r="B201" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C201" t="s">
+        <v>907</v>
+      </c>
+      <c r="N201" t="s">
         <v>908</v>
-      </c>
-      <c r="N201" t="s">
-        <v>909</v>
       </c>
       <c r="O201" t="s">
         <v>91</v>
@@ -7749,13 +7749,13 @@
         <v>687</v>
       </c>
       <c r="B202" t="s">
+        <v>909</v>
+      </c>
+      <c r="C202" t="s">
         <v>910</v>
       </c>
-      <c r="C202" t="s">
+      <c r="N202" t="s">
         <v>911</v>
-      </c>
-      <c r="N202" t="s">
-        <v>912</v>
       </c>
       <c r="O202" t="s">
         <v>91</v>
@@ -7766,25 +7766,25 @@
         <v>687</v>
       </c>
       <c r="B203" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C203" t="s">
+        <v>912</v>
+      </c>
+      <c r="D203" t="s">
         <v>913</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>914</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>915</v>
       </c>
-      <c r="F203" t="s">
+      <c r="K203" t="s">
         <v>916</v>
       </c>
-      <c r="K203" t="s">
+      <c r="N203" t="s">
         <v>917</v>
-      </c>
-      <c r="N203" t="s">
-        <v>918</v>
       </c>
       <c r="O203" t="s">
         <v>19</v>
@@ -7795,16 +7795,16 @@
         <v>687</v>
       </c>
       <c r="B204" t="s">
+        <v>918</v>
+      </c>
+      <c r="C204" t="s">
         <v>919</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>920</v>
       </c>
-      <c r="D204" t="s">
+      <c r="N204" t="s">
         <v>921</v>
-      </c>
-      <c r="N204" t="s">
-        <v>922</v>
       </c>
       <c r="O204" t="s">
         <v>28</v>
@@ -7815,25 +7815,25 @@
         <v>687</v>
       </c>
       <c r="B205" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C205" t="s">
+        <v>922</v>
+      </c>
+      <c r="D205" t="s">
         <v>923</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>924</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205" t="s">
         <v>925</v>
       </c>
-      <c r="F205" t="s">
+      <c r="K205" t="s">
         <v>926</v>
       </c>
-      <c r="K205" t="s">
+      <c r="N205" t="s">
         <v>927</v>
-      </c>
-      <c r="N205" t="s">
-        <v>928</v>
       </c>
       <c r="O205" t="s">
         <v>19</v>
@@ -7844,25 +7844,25 @@
         <v>687</v>
       </c>
       <c r="B206" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C206" t="s">
         <v>835</v>
       </c>
       <c r="D206" t="s">
+        <v>929</v>
+      </c>
+      <c r="E206" t="s">
         <v>930</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>931</v>
-      </c>
-      <c r="F206" t="s">
-        <v>932</v>
       </c>
       <c r="K206" t="s">
         <v>839</v>
       </c>
       <c r="N206" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O206" t="s">
         <v>19</v>
@@ -7873,13 +7873,13 @@
         <v>687</v>
       </c>
       <c r="B207" t="s">
+        <v>933</v>
+      </c>
+      <c r="C207" t="s">
         <v>934</v>
       </c>
-      <c r="C207" t="s">
+      <c r="N207" t="s">
         <v>935</v>
-      </c>
-      <c r="N207" t="s">
-        <v>936</v>
       </c>
       <c r="O207" t="s">
         <v>91</v>
@@ -7890,28 +7890,28 @@
         <v>687</v>
       </c>
       <c r="B208" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C208" t="s">
+        <v>936</v>
+      </c>
+      <c r="D208" t="s">
         <v>937</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>938</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>939</v>
       </c>
-      <c r="F208" t="s">
+      <c r="K208" t="s">
         <v>940</v>
       </c>
-      <c r="K208" t="s">
+      <c r="L208" t="s">
         <v>941</v>
       </c>
-      <c r="L208" t="s">
+      <c r="N208" t="s">
         <v>942</v>
-      </c>
-      <c r="N208" t="s">
-        <v>943</v>
       </c>
       <c r="O208" t="s">
         <v>19</v>
@@ -7922,13 +7922,13 @@
         <v>687</v>
       </c>
       <c r="B209" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C209" t="s">
+        <v>943</v>
+      </c>
+      <c r="N209" t="s">
         <v>944</v>
-      </c>
-      <c r="N209" t="s">
-        <v>945</v>
       </c>
       <c r="O209" t="s">
         <v>91</v>
@@ -7939,13 +7939,13 @@
         <v>687</v>
       </c>
       <c r="B210" t="s">
+        <v>945</v>
+      </c>
+      <c r="C210" t="s">
         <v>946</v>
       </c>
-      <c r="C210" t="s">
+      <c r="N210" t="s">
         <v>947</v>
-      </c>
-      <c r="N210" t="s">
-        <v>948</v>
       </c>
       <c r="O210" t="s">
         <v>91</v>
@@ -7956,19 +7956,19 @@
         <v>687</v>
       </c>
       <c r="B211" t="s">
+        <v>948</v>
+      </c>
+      <c r="C211" t="s">
         <v>949</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>950</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>951</v>
       </c>
-      <c r="E211" t="s">
+      <c r="N211" t="s">
         <v>952</v>
-      </c>
-      <c r="N211" t="s">
-        <v>953</v>
       </c>
       <c r="O211" t="s">
         <v>28</v>
@@ -7979,25 +7979,25 @@
         <v>687</v>
       </c>
       <c r="B212" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C212" t="s">
+        <v>953</v>
+      </c>
+      <c r="D212" t="s">
         <v>954</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>955</v>
       </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>956</v>
       </c>
-      <c r="F212" t="s">
+      <c r="K212" t="s">
         <v>957</v>
       </c>
-      <c r="K212" t="s">
+      <c r="N212" t="s">
         <v>958</v>
-      </c>
-      <c r="N212" t="s">
-        <v>959</v>
       </c>
       <c r="O212" t="s">
         <v>19</v>
@@ -8008,25 +8008,25 @@
         <v>687</v>
       </c>
       <c r="B213" t="s">
+        <v>959</v>
+      </c>
+      <c r="C213" t="s">
         <v>960</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>961</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>962</v>
       </c>
-      <c r="E213" t="s">
+      <c r="F213" t="s">
         <v>963</v>
       </c>
-      <c r="F213" t="s">
+      <c r="K213" t="s">
         <v>964</v>
       </c>
-      <c r="K213" t="s">
+      <c r="N213" t="s">
         <v>965</v>
-      </c>
-      <c r="N213" t="s">
-        <v>966</v>
       </c>
       <c r="O213" t="s">
         <v>19</v>
@@ -8037,19 +8037,19 @@
         <v>687</v>
       </c>
       <c r="B214" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C214" t="s">
+        <v>966</v>
+      </c>
+      <c r="D214" t="s">
         <v>967</v>
       </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>968</v>
       </c>
-      <c r="F214" t="s">
+      <c r="N214" t="s">
         <v>969</v>
-      </c>
-      <c r="N214" t="s">
-        <v>970</v>
       </c>
       <c r="O214" t="s">
         <v>19</v>
@@ -8060,16 +8060,16 @@
         <v>687</v>
       </c>
       <c r="B215" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C215" t="s">
+        <v>970</v>
+      </c>
+      <c r="D215" t="s">
         <v>971</v>
       </c>
-      <c r="D215" t="s">
+      <c r="N215" t="s">
         <v>972</v>
-      </c>
-      <c r="N215" t="s">
-        <v>973</v>
       </c>
       <c r="O215" t="s">
         <v>91</v>
@@ -8080,13 +8080,13 @@
         <v>687</v>
       </c>
       <c r="B216" t="s">
+        <v>973</v>
+      </c>
+      <c r="C216" t="s">
         <v>974</v>
       </c>
-      <c r="C216" t="s">
+      <c r="N216" t="s">
         <v>975</v>
-      </c>
-      <c r="N216" t="s">
-        <v>976</v>
       </c>
       <c r="O216" t="s">
         <v>91</v>
@@ -8097,22 +8097,22 @@
         <v>687</v>
       </c>
       <c r="B217" t="s">
+        <v>976</v>
+      </c>
+      <c r="C217" t="s">
         <v>977</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>978</v>
       </c>
-      <c r="D217" t="s">
+      <c r="F217" t="s">
         <v>979</v>
       </c>
-      <c r="F217" t="s">
+      <c r="K217" t="s">
         <v>980</v>
       </c>
-      <c r="K217" t="s">
+      <c r="N217" t="s">
         <v>981</v>
-      </c>
-      <c r="N217" t="s">
-        <v>982</v>
       </c>
       <c r="O217" t="s">
         <v>19</v>
@@ -8123,13 +8123,13 @@
         <v>687</v>
       </c>
       <c r="B218" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C218" t="s">
+        <v>982</v>
+      </c>
+      <c r="N218" t="s">
         <v>983</v>
-      </c>
-      <c r="N218" t="s">
-        <v>984</v>
       </c>
       <c r="O218" t="s">
         <v>91</v>
@@ -8140,13 +8140,13 @@
         <v>687</v>
       </c>
       <c r="B219" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C219" t="s">
+        <v>984</v>
+      </c>
+      <c r="N219" t="s">
         <v>985</v>
-      </c>
-      <c r="N219" t="s">
-        <v>986</v>
       </c>
       <c r="O219" t="s">
         <v>91</v>
@@ -8157,22 +8157,22 @@
         <v>687</v>
       </c>
       <c r="B220" t="s">
+        <v>986</v>
+      </c>
+      <c r="C220" t="s">
         <v>987</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>988</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>989</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>990</v>
       </c>
-      <c r="F220" t="s">
+      <c r="N220" t="s">
         <v>991</v>
-      </c>
-      <c r="N220" t="s">
-        <v>992</v>
       </c>
       <c r="O220" t="s">
         <v>28</v>
@@ -8183,13 +8183,13 @@
         <v>687</v>
       </c>
       <c r="B221" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C221" t="s">
+        <v>992</v>
+      </c>
+      <c r="N221" t="s">
         <v>993</v>
-      </c>
-      <c r="N221" t="s">
-        <v>994</v>
       </c>
       <c r="O221" t="s">
         <v>91</v>
@@ -8200,25 +8200,25 @@
         <v>687</v>
       </c>
       <c r="B222" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C222" t="s">
+        <v>994</v>
+      </c>
+      <c r="D222" t="s">
         <v>995</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>996</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>997</v>
       </c>
-      <c r="F222" t="s">
+      <c r="K222" t="s">
         <v>998</v>
       </c>
-      <c r="K222" t="s">
+      <c r="N222" t="s">
         <v>999</v>
-      </c>
-      <c r="N222" t="s">
-        <v>1000</v>
       </c>
       <c r="O222" t="s">
         <v>19</v>
